--- a/music-1.xlsx
+++ b/music-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\rewrittenOraclesMusicSFX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7948299-5BC1-4FDF-BA99-1769C2360152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1A2E6-1283-4366-99B2-0A8130617613}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="645" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="music" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,6 +1424,9 @@
         <f t="shared" si="4"/>
         <v>tarmRuins\tarmRuins.mscz</v>
       </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3362,7 +3365,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>zeldaSaved\zeldaSaved.mscz</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>greatMoblin\greatMoblin.mscz</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>syrup\syrup.mscz</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -3551,8 +3554,11 @@
         <f t="shared" si="18"/>
         <v>songOfStorms\songOfStorms.mscz</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>goronCave\goronCave.mscz</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>intro1\intro1.mscz</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>intro2\intro2.mscz</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>41</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>42</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>43</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>44</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>45</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>76</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>4A</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" ref="E100:E131" si="19">IF($C100=1,"",HYPERLINK("oracle"&amp;IF(HEX2DEC(D100)&lt;HEX2DEC("4c"),"MUS\","SFX\")&amp;IF($L100&lt;&gt;1,"unfinished\","")&amp;IF(B100&lt;&gt;"",$B100,"Common")&amp;"\"&amp;$A100,$A100&amp;"\"))</f>
+        <f t="shared" ref="E100:E101" si="19">IF($C100=1,"",HYPERLINK("oracle"&amp;IF(HEX2DEC(D100)&lt;HEX2DEC("4c"),"MUS\","SFX\")&amp;IF($L100&lt;&gt;1,"unfinished\","")&amp;IF(B100&lt;&gt;"",$B100,"Common")&amp;"\"&amp;$A100,$A100&amp;"\"))</f>
         <v>preCredits\</v>
       </c>
       <c r="F100" s="2" t="str">
@@ -3943,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97C947-1A13-4D25-B1EC-00132C15D78B}">
   <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+    <sheetView topLeftCell="A147" workbookViewId="0">
       <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
@@ -6838,7 +6844,7 @@
         <v>BD</v>
       </c>
       <c r="E130" s="2" t="str">
-        <f t="shared" ref="E130:E161" si="20">IF($C130=1,"",HYPERLINK("oracle"&amp;IF(HEX2DEC(D130)&lt;HEX2DEC("4c"),"MUS\","SFX\")&amp;IF($K130&lt;&gt;1,"unfinished\","")&amp;IF(B130&lt;&gt;"",$B130,"Common")&amp;"\"&amp;$A130,$A130&amp;"\"))</f>
+        <f t="shared" ref="E130:E158" si="20">IF($C130=1,"",HYPERLINK("oracle"&amp;IF(HEX2DEC(D130)&lt;HEX2DEC("4c"),"MUS\","SFX\")&amp;IF($K130&lt;&gt;1,"unfinished\","")&amp;IF(B130&lt;&gt;"",$B130,"Common")&amp;"\"&amp;$A130,$A130&amp;"\"))</f>
         <v/>
       </c>
       <c r="F130" s="2" t="str">
